--- a/data/roster_past.xlsx
+++ b/data/roster_past.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8374EAB7-FDDD-447D-9F24-63DEEAEFEE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="450" windowWidth="26790" windowHeight="14355"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$14</definedName>
@@ -23,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="272">
   <si>
     <t>Year</t>
   </si>
@@ -661,12 +652,204 @@
   </si>
   <si>
     <t>IQWiG</t>
+  </si>
+  <si>
+    <t>Kaspar Rufibach</t>
+  </si>
+  <si>
+    <t>Between jobs</t>
+  </si>
+  <si>
+    <t>Emmanuel Zuber</t>
+  </si>
+  <si>
+    <t>Jenny Devenport</t>
+  </si>
+  <si>
+    <t>Fredrik Öhrn</t>
+  </si>
+  <si>
+    <t>Johnson and Johnson</t>
+  </si>
+  <si>
+    <t>Julie Jones</t>
+  </si>
+  <si>
+    <t>Bergrún Magnúsdóttir</t>
+  </si>
+  <si>
+    <t>Regulator Europe (EMA)</t>
+  </si>
+  <si>
+    <t>Vivian Lanius</t>
+  </si>
+  <si>
+    <t>Florian Lasch</t>
+  </si>
+  <si>
+    <t>Brett Hauber</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>Laura Rodwell</t>
+  </si>
+  <si>
+    <t>Regulator Netherlands (CBG-MEB)</t>
+  </si>
+  <si>
+    <t>Regulator Germany (PEI / BfARM / BVL)</t>
+  </si>
+  <si>
+    <t>Sarianne Paeivike</t>
+  </si>
+  <si>
+    <t>Regulator Finland (FIMEA)</t>
+  </si>
+  <si>
+    <t>Katrin Kupas</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>Johan Hellsten</t>
+  </si>
+  <si>
+    <t>Frank Bretz</t>
+  </si>
+  <si>
+    <t>Heidi Mestl</t>
+  </si>
+  <si>
+    <t>Regulator Norway (NOMA)</t>
+  </si>
+  <si>
+    <t>Lara Wolfson</t>
+  </si>
+  <si>
+    <t>MSD</t>
+  </si>
+  <si>
+    <t>Regulator UK (MHRA)</t>
+  </si>
+  <si>
+    <t>Antonio Remiro-Azocar</t>
+  </si>
+  <si>
+    <t>Lukas Aguirre Davila</t>
+  </si>
+  <si>
+    <t>Sandro Gsteiger</t>
+  </si>
+  <si>
+    <t>Tobias Fellinger</t>
+  </si>
+  <si>
+    <t>Regulator Austria (AGES)</t>
+  </si>
+  <si>
+    <t>Florian Klinglmueller</t>
+  </si>
+  <si>
+    <t>Alessandro Gasparini</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Aysun Cetinyurek Yavuz</t>
+  </si>
+  <si>
+    <t>Paul Schuette</t>
+  </si>
+  <si>
+    <t>Regulator USA (FDA)</t>
+  </si>
+  <si>
+    <t>Wim Goettsch</t>
+  </si>
+  <si>
+    <t>Lilla Di Scala</t>
+  </si>
+  <si>
+    <t>Mouna Akacha</t>
+  </si>
+  <si>
+    <t>Juha-Pekka Perttola</t>
+  </si>
+  <si>
+    <t>Pierre Mancini</t>
+  </si>
+  <si>
+    <t>Sanofi</t>
+  </si>
+  <si>
+    <t>Anna Wiksten</t>
+  </si>
+  <si>
+    <t>Patient advocate</t>
+  </si>
+  <si>
+    <t>David Mcconnell</t>
+  </si>
+  <si>
+    <t>NCPE, EU HTACG Methodology Subgroup</t>
+  </si>
+  <si>
+    <t>Peter Ahnesorg</t>
+  </si>
+  <si>
+    <t>Giulia Zigon</t>
+  </si>
+  <si>
+    <t>Gregory Levin</t>
+  </si>
+  <si>
+    <t>Steffen Falgreen Larsen</t>
+  </si>
+  <si>
+    <t>Karin Cerri</t>
+  </si>
+  <si>
+    <t>Miya Paterniti</t>
+  </si>
+  <si>
+    <t>Francesco Pignatti</t>
+  </si>
+  <si>
+    <t>Jianhong Pan</t>
+  </si>
+  <si>
+    <t>Regulator China (NMPA)</t>
+  </si>
+  <si>
+    <t>Duanduan Cong</t>
+  </si>
+  <si>
+    <t>Yan Hou</t>
+  </si>
+  <si>
+    <t>Peking University</t>
+  </si>
+  <si>
+    <t>Xiaoni Liu</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Radboud MC</t>
+  </si>
+  <si>
+    <t>NMPA China</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -702,18 +885,18 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1024,14 +1207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1743,12 +1926,14 @@
         <v>2018</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -1758,10 +1943,10 @@
         <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1772,7 +1957,7 @@
         <v>63</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>67</v>
@@ -1786,10 +1971,10 @@
         <v>63</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1800,10 +1985,10 @@
         <v>63</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1814,10 +1999,10 @@
         <v>63</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1828,7 +2013,7 @@
         <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>68</v>
@@ -1842,10 +2027,10 @@
         <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1856,10 +2041,10 @@
         <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1870,10 +2055,10 @@
         <v>63</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1884,10 +2069,10 @@
         <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1898,10 +2083,10 @@
         <v>63</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1909,13 +2094,13 @@
         <v>2018</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1926,10 +2111,10 @@
         <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1940,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>160</v>
@@ -1954,24 +2139,24 @@
         <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,10 +2167,10 @@
         <v>190</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1996,10 +2181,10 @@
         <v>190</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2010,7 +2195,7 @@
         <v>190</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>195</v>
@@ -2024,10 +2209,10 @@
         <v>190</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2038,10 +2223,10 @@
         <v>190</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2049,14 +2234,12 @@
         <v>2019</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
@@ -2066,7 +2249,7 @@
         <v>61</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1"/>
     </row>
@@ -2078,7 +2261,7 @@
         <v>61</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="1"/>
     </row>
@@ -2087,12 +2270,14 @@
         <v>2019</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
@@ -2102,10 +2287,10 @@
         <v>63</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2116,10 +2301,10 @@
         <v>63</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,10 +2315,10 @@
         <v>63</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,10 +2329,10 @@
         <v>63</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,10 +2343,10 @@
         <v>63</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2172,10 +2357,10 @@
         <v>63</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,10 +2371,10 @@
         <v>63</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,10 +2385,10 @@
         <v>63</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,10 +2399,10 @@
         <v>63</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,10 +2413,10 @@
         <v>63</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,10 +2427,10 @@
         <v>63</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2253,13 +2438,13 @@
         <v>2019</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,24 +2455,24 @@
         <v>17</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,10 +2483,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2309,13 +2494,13 @@
         <v>2020</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2326,10 +2511,10 @@
         <v>63</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,10 +2525,10 @@
         <v>63</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,7 +2539,7 @@
         <v>63</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>68</v>
@@ -2368,10 +2553,10 @@
         <v>63</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,10 +2567,10 @@
         <v>63</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,10 +2581,10 @@
         <v>63</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,10 +2595,10 @@
         <v>63</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,10 +2609,10 @@
         <v>63</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,7 +2623,7 @@
         <v>63</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>67</v>
@@ -2452,9 +2637,9 @@
         <v>63</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D103" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2463,13 +2648,13 @@
         <v>2020</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D104" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2479,38 +2664,38 @@
       <c r="B105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>131</v>
+      <c r="C105" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D106" t="s">
-        <v>171</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>2021</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
@@ -2520,7 +2705,7 @@
         <v>190</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>65</v>
@@ -2534,10 +2719,10 @@
         <v>190</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2548,10 +2733,10 @@
         <v>190</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2562,10 +2747,10 @@
         <v>190</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2576,10 +2761,10 @@
         <v>190</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2590,7 +2775,7 @@
         <v>190</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>65</v>
@@ -2604,10 +2789,10 @@
         <v>190</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2615,13 +2800,13 @@
         <v>2021</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2629,14 +2814,12 @@
         <v>2021</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>194</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
@@ -2646,7 +2829,7 @@
         <v>61</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D117" s="1"/>
     </row>
@@ -2658,19 +2841,18 @@
         <v>61</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D118" s="1"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2021</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2678,10 +2860,13 @@
         <v>2021</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2691,11 +2876,11 @@
       <c r="B121" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>133</v>
+      <c r="C121" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D121" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2706,10 +2891,10 @@
         <v>63</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2720,10 +2905,10 @@
         <v>63</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2734,10 +2919,10 @@
         <v>63</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2748,10 +2933,10 @@
         <v>63</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2762,10 +2947,10 @@
         <v>63</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2776,10 +2961,10 @@
         <v>63</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2790,10 +2975,10 @@
         <v>63</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D128" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -2804,10 +2989,10 @@
         <v>63</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -2818,10 +3003,10 @@
         <v>63</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D130" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -2832,10 +3017,10 @@
         <v>63</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D131" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -2843,13 +3028,13 @@
         <v>2021</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D132" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -2860,24 +3045,21 @@
         <v>17</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D133" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D134" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -2888,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2899,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -2907,10 +3089,13 @@
         <v>2022</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D137" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -2921,10 +3106,10 @@
         <v>190</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -2935,10 +3120,10 @@
         <v>190</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -2949,10 +3134,10 @@
         <v>190</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D140" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -2963,7 +3148,7 @@
         <v>190</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D141" t="s">
         <v>198</v>
@@ -2977,10 +3162,10 @@
         <v>190</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -2991,10 +3176,10 @@
         <v>190</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" t="s">
-        <v>189</v>
+        <v>44</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -3005,10 +3190,10 @@
         <v>190</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>191</v>
+        <v>45</v>
+      </c>
+      <c r="D144" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -3019,10 +3204,10 @@
         <v>190</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D145" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -3030,13 +3215,13 @@
         <v>2022</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -3044,13 +3229,10 @@
         <v>2022</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -3061,7 +3243,7 @@
         <v>61</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -3072,7 +3254,7 @@
         <v>61</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -3080,10 +3262,10 @@
         <v>2022</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -3091,10 +3273,13 @@
         <v>2022</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>9</v>
+        <v>88</v>
+      </c>
+      <c r="D151" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -3105,7 +3290,7 @@
         <v>63</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D152" t="s">
         <v>67</v>
@@ -3119,7 +3304,7 @@
         <v>63</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D153" t="s">
         <v>67</v>
@@ -3133,10 +3318,10 @@
         <v>63</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D154" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -3147,10 +3332,10 @@
         <v>63</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -3161,10 +3346,10 @@
         <v>63</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D156" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -3175,7 +3360,7 @@
         <v>63</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D157" t="s">
         <v>67</v>
@@ -3189,10 +3374,10 @@
         <v>63</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D158" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -3203,10 +3388,10 @@
         <v>63</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D159" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -3217,10 +3402,10 @@
         <v>63</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D160" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -3228,13 +3413,13 @@
         <v>2022</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D161" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -3245,10 +3430,10 @@
         <v>17</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -3259,24 +3444,21 @@
         <v>17</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D163" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D164" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -3287,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -3298,7 +3480,7 @@
         <v>2</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -3306,10 +3488,13 @@
         <v>2023</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="D167" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -3320,10 +3505,10 @@
         <v>190</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D168" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -3334,10 +3519,10 @@
         <v>190</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D169" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -3348,10 +3533,10 @@
         <v>190</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D170" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -3362,10 +3547,10 @@
         <v>190</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D171" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -3376,7 +3561,7 @@
         <v>190</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D172" t="s">
         <v>201</v>
@@ -3390,10 +3575,10 @@
         <v>190</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -3404,10 +3589,10 @@
         <v>190</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D174" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -3418,10 +3603,10 @@
         <v>190</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D175" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -3432,10 +3617,10 @@
         <v>190</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D176" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -3443,13 +3628,10 @@
         <v>2023</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D177" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -3457,10 +3639,13 @@
         <v>2023</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="D178" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -3471,10 +3656,10 @@
         <v>7</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D179" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -3485,10 +3670,10 @@
         <v>7</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D180" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -3496,13 +3681,13 @@
         <v>2023</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D181" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -3512,11 +3697,11 @@
       <c r="B182" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C182" s="3" t="s">
-        <v>148</v>
+      <c r="C182" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D182" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -3527,10 +3712,10 @@
         <v>63</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D183" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -3541,10 +3726,10 @@
         <v>63</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -3555,10 +3740,10 @@
         <v>63</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="D185" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -3569,51 +3754,700 @@
         <v>63</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D186" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>2023</v>
+      <c r="A187">
+        <v>2024</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>76</v>
+      <c r="C187" t="s">
+        <v>208</v>
       </c>
       <c r="D187" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>2024</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" t="s">
+        <v>210</v>
+      </c>
+      <c r="D188" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>2024</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" t="s">
+        <v>211</v>
+      </c>
+      <c r="D189" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>2024</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" t="s">
+        <v>212</v>
+      </c>
+      <c r="D190" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>2024</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C191" t="s">
+        <v>214</v>
+      </c>
+      <c r="D191" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>2024</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C192" t="s">
+        <v>215</v>
+      </c>
+      <c r="D192" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>2024</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C193" t="s">
+        <v>217</v>
+      </c>
+      <c r="D193" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>2024</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C194" t="s">
+        <v>218</v>
+      </c>
+      <c r="D194" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>2024</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C195" t="s">
+        <v>219</v>
+      </c>
+      <c r="D195" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>2024</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C196" t="s">
+        <v>221</v>
+      </c>
+      <c r="D196" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>2024</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C197" t="s">
+        <v>53</v>
+      </c>
+      <c r="D197" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>2024</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C198" t="s">
+        <v>224</v>
+      </c>
+      <c r="D198" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>2024</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C199" t="s">
+        <v>36</v>
+      </c>
+      <c r="D199" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>2024</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" t="s">
+        <v>226</v>
+      </c>
+      <c r="D200" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>2024</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C201" t="s">
+        <v>228</v>
+      </c>
+      <c r="D201" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>2024</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C202" t="s">
+        <v>229</v>
+      </c>
+      <c r="D202" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>2024</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C203" t="s">
+        <v>230</v>
+      </c>
+      <c r="D203" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>2024</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C204" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>2024</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C205" t="s">
+        <v>232</v>
+      </c>
+      <c r="D205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>2024</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C206" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>2024</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C207" t="s">
+        <v>235</v>
+      </c>
+      <c r="D207" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2024</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C208" t="s">
+        <v>236</v>
+      </c>
+      <c r="D208" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>2024</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C209" t="s">
+        <v>237</v>
+      </c>
+      <c r="D209" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>2024</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C210" t="s">
+        <v>238</v>
+      </c>
+      <c r="D210" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>2024</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C211" t="s">
+        <v>240</v>
+      </c>
+      <c r="D211" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>2024</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" t="s">
+        <v>241</v>
+      </c>
+      <c r="D212" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>2024</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C213" t="s">
+        <v>243</v>
+      </c>
+      <c r="D213" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>2024</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>2024</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C215" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>2024</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" t="s">
+        <v>244</v>
+      </c>
+      <c r="D216" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>2024</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>246</v>
+      </c>
+      <c r="D217" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>2024</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C218" t="s">
+        <v>23</v>
+      </c>
+      <c r="D218" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>2024</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C219" t="s">
+        <v>247</v>
+      </c>
+      <c r="D219" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>2024</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C220" t="s">
+        <v>248</v>
+      </c>
+      <c r="D220" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>2024</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C221" t="s">
+        <v>249</v>
+      </c>
+      <c r="D221" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>2024</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C222" t="s">
+        <v>250</v>
+      </c>
+      <c r="D222" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>2024</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C223" t="s">
+        <v>252</v>
+      </c>
+      <c r="D223" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>2024</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>254</v>
+      </c>
+      <c r="D224" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>2024</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C225" t="s">
+        <v>256</v>
+      </c>
+      <c r="D225" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>2024</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C226" t="s">
+        <v>257</v>
+      </c>
+      <c r="D226" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>2024</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s">
+        <v>258</v>
+      </c>
+      <c r="D227" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>2024</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C228" t="s">
+        <v>259</v>
+      </c>
+      <c r="D228" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>2024</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C229" t="s">
+        <v>260</v>
+      </c>
+      <c r="D229" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>2024</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>261</v>
+      </c>
+      <c r="D230" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>2024</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C231" t="s">
+        <v>262</v>
+      </c>
+      <c r="D231" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>2024</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C232" t="s">
+        <v>263</v>
+      </c>
+      <c r="D232" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>2024</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C233" t="s">
+        <v>265</v>
+      </c>
+      <c r="D233" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>2024</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C234" t="s">
+        <v>266</v>
+      </c>
+      <c r="D234" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>2024</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C235" t="s">
+        <v>268</v>
+      </c>
+      <c r="D235" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD81"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="85" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/roster_past.xlsx
+++ b/data/roster_past.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8374EAB7-FDDD-447D-9F24-63DEEAEFEE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E5260A-0820-4881-9431-825B3B357BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="4140" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1210,20 +1210,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="5.42578125" style="1"/>
+    <col min="5" max="16384" width="5.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2016</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2016</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2016</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2016</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2016</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2016</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2016</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2016</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2016</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2016</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2016</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2016</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2016</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2016</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2016</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2016</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2016</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2016</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2016</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2016</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2016</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2016</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2017</v>
       </c>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2017</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2017</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2017</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2017</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2017</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2017</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2017</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2017</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2017</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2017</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2017</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2017</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2017</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2017</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2017</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2017</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2017</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2017</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2018</v>
       </c>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2018</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2018</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2018</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2018</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2018</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2018</v>
       </c>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2018</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2018</v>
       </c>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2018</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2018</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2018</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2018</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2018</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2018</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2018</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2018</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2018</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2018</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>2018</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2018</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2018</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2018</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2018</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2018</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2019</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2019</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>2019</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>2019</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>2019</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>2019</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>2019</v>
       </c>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2019</v>
       </c>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>2019</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>2019</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>2019</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>2019</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>2019</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>2019</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>2019</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>2019</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>2019</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>2019</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>2019</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>2019</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>2019</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>2019</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>2019</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>2020</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>2020</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>2020</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>2020</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>2020</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>2020</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>2020</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>2020</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>2020</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>2020</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>2020</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>2020</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>2020</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>2020</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>2020</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>2021</v>
       </c>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>2021</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>2021</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>2021</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>2021</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>2021</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>2021</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>2021</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>2021</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>2021</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>2021</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>2021</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>2021</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>2021</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>2021</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>2021</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>2021</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>2021</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>2021</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>2021</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>2021</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>2021</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>2021</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>2021</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>2021</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>2021</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>2021</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>2021</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>2022</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>2022</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>2022</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>2022</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>2022</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>2022</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>2022</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>2022</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>2022</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>2022</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>2022</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>2022</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>2022</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>2022</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>2022</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>2022</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>2022</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>2022</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>2022</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>2022</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>2022</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>2022</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>2022</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>2022</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>2022</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>2022</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>2022</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>2022</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>2022</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>2022</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>2023</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>2023</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>2023</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>2023</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>2023</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>2023</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>2023</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>2023</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>2023</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>2023</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>2023</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>2023</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>2023</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>2023</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>2023</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>2023</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>2023</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>2023</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>2023</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>2023</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>2023</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>2023</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>2023</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2024</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2024</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2024</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2024</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2024</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2024</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2024</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2024</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2024</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2024</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2024</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2024</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2024</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2024</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2024</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2024</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2024</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2024</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2024</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2024</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2024</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2024</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2024</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2024</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2024</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2024</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2024</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2024</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2024</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2024</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2024</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2024</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2024</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2024</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2024</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2024</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2024</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2024</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2024</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2024</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2024</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2024</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2024</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2024</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2024</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2024</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2024</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2024</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2024</v>
       </c>

--- a/data/roster_past.xlsx
+++ b/data/roster_past.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E5260A-0820-4881-9431-825B3B357BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE1EB23-FA62-49E1-9120-C9A14AA436CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="4140" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="324">
   <si>
     <t>Year</t>
   </si>
@@ -844,6 +855,162 @@
   </si>
   <si>
     <t>NMPA China</t>
+  </si>
+  <si>
+    <t>Christopher Jennison</t>
+  </si>
+  <si>
+    <t>University of Bath</t>
+  </si>
+  <si>
+    <t>Miguel Hernán</t>
+  </si>
+  <si>
+    <t>Havard university</t>
+  </si>
+  <si>
+    <t>University of Göttingen</t>
+  </si>
+  <si>
+    <t>Olaf Klungel</t>
+  </si>
+  <si>
+    <t>University of Utrecht</t>
+  </si>
+  <si>
+    <t>Tim Friede</t>
+  </si>
+  <si>
+    <t>BfARM</t>
+  </si>
+  <si>
+    <t>Angelika Geroldinger</t>
+  </si>
+  <si>
+    <t>Bergrún Tinna Magnúsdottir</t>
+  </si>
+  <si>
+    <t>IMA</t>
+  </si>
+  <si>
+    <t>NOMA</t>
+  </si>
+  <si>
+    <t>Seamus Kent</t>
+  </si>
+  <si>
+    <t>ESHPM</t>
+  </si>
+  <si>
+    <t>Antonio Remiro-Azócar</t>
+  </si>
+  <si>
+    <t>Chris Harbron</t>
+  </si>
+  <si>
+    <t>Claudia Dallinger</t>
+  </si>
+  <si>
+    <t>Boehringer Ingelheim</t>
+  </si>
+  <si>
+    <t>Egbert Biesheuvel</t>
+  </si>
+  <si>
+    <t>Viatris</t>
+  </si>
+  <si>
+    <t>Cogitamen</t>
+  </si>
+  <si>
+    <t>J&amp;J</t>
+  </si>
+  <si>
+    <t>Henrik F. Thomsen</t>
+  </si>
+  <si>
+    <t>Jürgen Hummel</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Mickaël De Backer</t>
+  </si>
+  <si>
+    <t>UCB</t>
+  </si>
+  <si>
+    <t>Nicky Best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver Sailer </t>
+  </si>
+  <si>
+    <t>Patrick Schloemer</t>
+  </si>
+  <si>
+    <t>Rima Izem</t>
+  </si>
+  <si>
+    <t>Simon Wandel</t>
+  </si>
+  <si>
+    <t>Thomas Hiemstra</t>
+  </si>
+  <si>
+    <t>Tobias Mielke</t>
+  </si>
+  <si>
+    <t>Valerie Nock</t>
+  </si>
+  <si>
+    <t>Hans Ulrich Burger</t>
+  </si>
+  <si>
+    <t>Medical University of Graz</t>
+  </si>
+  <si>
+    <t>Silke Jörgens</t>
+  </si>
+  <si>
+    <t>Andrea Manfrin</t>
+  </si>
+  <si>
+    <t>fimea</t>
+  </si>
+  <si>
+    <t>Florian Krach</t>
+  </si>
+  <si>
+    <t>PEI</t>
+  </si>
+  <si>
+    <t>Gabriel Westman</t>
+  </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t>Katharina Hees-Krumm</t>
+  </si>
+  <si>
+    <t>Maria Grünewald</t>
+  </si>
+  <si>
+    <t>Rafael Sauter</t>
+  </si>
+  <si>
+    <t>Swissmedic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaofei Liu </t>
+  </si>
+  <si>
+    <t>University of Namur</t>
+  </si>
+  <si>
+    <t>Radboud UMC</t>
   </si>
 </sst>
 </file>
@@ -1208,22 +1375,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="5.453125" style="1"/>
+    <col min="5" max="16384" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2016</v>
       </c>
@@ -1248,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2016</v>
       </c>
@@ -1262,7 +1429,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2016</v>
       </c>
@@ -1276,7 +1443,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2016</v>
       </c>
@@ -1290,7 +1457,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2016</v>
       </c>
@@ -1304,7 +1471,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2016</v>
       </c>
@@ -1318,7 +1485,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2016</v>
       </c>
@@ -1332,7 +1499,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2016</v>
       </c>
@@ -1343,7 +1510,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2016</v>
       </c>
@@ -1357,7 +1524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2016</v>
       </c>
@@ -1371,7 +1538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2016</v>
       </c>
@@ -1385,7 +1552,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2016</v>
       </c>
@@ -1399,7 +1566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2016</v>
       </c>
@@ -1413,7 +1580,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2016</v>
       </c>
@@ -1427,7 +1594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2016</v>
       </c>
@@ -1441,7 +1608,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2016</v>
       </c>
@@ -1455,7 +1622,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2016</v>
       </c>
@@ -1469,7 +1636,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2016</v>
       </c>
@@ -1483,7 +1650,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2016</v>
       </c>
@@ -1497,7 +1664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2016</v>
       </c>
@@ -1511,7 +1678,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2016</v>
       </c>
@@ -1525,7 +1692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2016</v>
       </c>
@@ -1539,7 +1706,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2017</v>
       </c>
@@ -1551,7 +1718,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2017</v>
       </c>
@@ -1565,7 +1732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2017</v>
       </c>
@@ -1579,7 +1746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2017</v>
       </c>
@@ -1593,7 +1760,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2017</v>
       </c>
@@ -1607,7 +1774,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2017</v>
       </c>
@@ -1619,7 +1786,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2017</v>
       </c>
@@ -1633,7 +1800,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2017</v>
       </c>
@@ -1647,7 +1814,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2017</v>
       </c>
@@ -1661,7 +1828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2017</v>
       </c>
@@ -1675,7 +1842,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2017</v>
       </c>
@@ -1689,7 +1856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2017</v>
       </c>
@@ -1703,7 +1870,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2017</v>
       </c>
@@ -1717,7 +1884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2017</v>
       </c>
@@ -1731,7 +1898,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2017</v>
       </c>
@@ -1745,7 +1912,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2017</v>
       </c>
@@ -1759,7 +1926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2017</v>
       </c>
@@ -1773,7 +1940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2017</v>
       </c>
@@ -1787,7 +1954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2017</v>
       </c>
@@ -1801,7 +1968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2018</v>
       </c>
@@ -1813,7 +1980,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2018</v>
       </c>
@@ -1827,7 +1994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2018</v>
       </c>
@@ -1841,7 +2008,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2018</v>
       </c>
@@ -1855,7 +2022,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2018</v>
       </c>
@@ -1869,7 +2036,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2018</v>
       </c>
@@ -1883,7 +2050,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2018</v>
       </c>
@@ -1895,7 +2062,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2018</v>
       </c>
@@ -1909,7 +2076,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2018</v>
       </c>
@@ -1921,7 +2088,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2018</v>
       </c>
@@ -1935,7 +2102,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2018</v>
       </c>
@@ -1949,7 +2116,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2018</v>
       </c>
@@ -1963,7 +2130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2018</v>
       </c>
@@ -1977,7 +2144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2018</v>
       </c>
@@ -1991,7 +2158,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2018</v>
       </c>
@@ -2005,7 +2172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2018</v>
       </c>
@@ -2019,7 +2186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2018</v>
       </c>
@@ -2033,7 +2200,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2018</v>
       </c>
@@ -2047,7 +2214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2018</v>
       </c>
@@ -2061,7 +2228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2018</v>
       </c>
@@ -2075,7 +2242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2018</v>
       </c>
@@ -2089,7 +2256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2018</v>
       </c>
@@ -2103,7 +2270,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2018</v>
       </c>
@@ -2117,7 +2284,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2018</v>
       </c>
@@ -2131,7 +2298,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2018</v>
       </c>
@@ -2145,7 +2312,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2019</v>
       </c>
@@ -2159,7 +2326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2019</v>
       </c>
@@ -2173,7 +2340,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2019</v>
       </c>
@@ -2187,7 +2354,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2019</v>
       </c>
@@ -2201,7 +2368,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2019</v>
       </c>
@@ -2215,7 +2382,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2019</v>
       </c>
@@ -2229,7 +2396,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2019</v>
       </c>
@@ -2241,7 +2408,7 @@
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2019</v>
       </c>
@@ -2253,7 +2420,7 @@
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2019</v>
       </c>
@@ -2265,7 +2432,7 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2019</v>
       </c>
@@ -2279,7 +2446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2019</v>
       </c>
@@ -2293,7 +2460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2019</v>
       </c>
@@ -2307,7 +2474,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2019</v>
       </c>
@@ -2321,7 +2488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2019</v>
       </c>
@@ -2335,7 +2502,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2019</v>
       </c>
@@ -2349,7 +2516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2019</v>
       </c>
@@ -2363,7 +2530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2019</v>
       </c>
@@ -2377,7 +2544,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2019</v>
       </c>
@@ -2391,7 +2558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2019</v>
       </c>
@@ -2405,7 +2572,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2019</v>
       </c>
@@ -2419,7 +2586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2019</v>
       </c>
@@ -2433,7 +2600,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2019</v>
       </c>
@@ -2447,7 +2614,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>2019</v>
       </c>
@@ -2461,7 +2628,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>2020</v>
       </c>
@@ -2475,7 +2642,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>2020</v>
       </c>
@@ -2489,7 +2656,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>2020</v>
       </c>
@@ -2503,7 +2670,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>2020</v>
       </c>
@@ -2517,7 +2684,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>2020</v>
       </c>
@@ -2531,7 +2698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>2020</v>
       </c>
@@ -2545,7 +2712,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>2020</v>
       </c>
@@ -2559,7 +2726,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>2020</v>
       </c>
@@ -2573,7 +2740,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2020</v>
       </c>
@@ -2587,7 +2754,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2020</v>
       </c>
@@ -2601,7 +2768,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2020</v>
       </c>
@@ -2615,7 +2782,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2020</v>
       </c>
@@ -2629,7 +2796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>2020</v>
       </c>
@@ -2643,7 +2810,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>2020</v>
       </c>
@@ -2657,7 +2824,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>2020</v>
       </c>
@@ -2671,7 +2838,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>2021</v>
       </c>
@@ -2683,7 +2850,7 @@
       </c>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>2021</v>
       </c>
@@ -2697,7 +2864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>2021</v>
       </c>
@@ -2711,7 +2878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>2021</v>
       </c>
@@ -2725,7 +2892,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>2021</v>
       </c>
@@ -2739,7 +2906,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>2021</v>
       </c>
@@ -2753,7 +2920,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>2021</v>
       </c>
@@ -2767,7 +2934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>2021</v>
       </c>
@@ -2781,7 +2948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>2021</v>
       </c>
@@ -2795,7 +2962,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>2021</v>
       </c>
@@ -2809,7 +2976,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>2021</v>
       </c>
@@ -2821,7 +2988,7 @@
       </c>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>2021</v>
       </c>
@@ -2833,7 +3000,7 @@
       </c>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>2021</v>
       </c>
@@ -2844,7 +3011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2021</v>
       </c>
@@ -2855,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>2021</v>
       </c>
@@ -2869,7 +3036,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>2021</v>
       </c>
@@ -2883,7 +3050,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>2021</v>
       </c>
@@ -2897,7 +3064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>2021</v>
       </c>
@@ -2911,7 +3078,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>2021</v>
       </c>
@@ -2925,7 +3092,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>2021</v>
       </c>
@@ -2939,7 +3106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>2021</v>
       </c>
@@ -2953,7 +3120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>2021</v>
       </c>
@@ -2967,7 +3134,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>2021</v>
       </c>
@@ -2981,7 +3148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>2021</v>
       </c>
@@ -2995,7 +3162,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>2021</v>
       </c>
@@ -3009,7 +3176,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>2021</v>
       </c>
@@ -3023,7 +3190,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>2021</v>
       </c>
@@ -3037,7 +3204,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>2021</v>
       </c>
@@ -3051,7 +3218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>2022</v>
       </c>
@@ -3062,7 +3229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>2022</v>
       </c>
@@ -3073,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>2022</v>
       </c>
@@ -3084,7 +3251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>2022</v>
       </c>
@@ -3098,7 +3265,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>2022</v>
       </c>
@@ -3112,7 +3279,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>2022</v>
       </c>
@@ -3126,7 +3293,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>2022</v>
       </c>
@@ -3140,7 +3307,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>2022</v>
       </c>
@@ -3154,7 +3321,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>2022</v>
       </c>
@@ -3168,7 +3335,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>2022</v>
       </c>
@@ -3182,7 +3349,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>2022</v>
       </c>
@@ -3196,7 +3363,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>2022</v>
       </c>
@@ -3210,7 +3377,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>2022</v>
       </c>
@@ -3224,7 +3391,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>2022</v>
       </c>
@@ -3235,7 +3402,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>2022</v>
       </c>
@@ -3246,7 +3413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>2022</v>
       </c>
@@ -3257,7 +3424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>2022</v>
       </c>
@@ -3268,7 +3435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>2022</v>
       </c>
@@ -3282,7 +3449,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>2022</v>
       </c>
@@ -3296,7 +3463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>2022</v>
       </c>
@@ -3310,7 +3477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>2022</v>
       </c>
@@ -3324,7 +3491,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>2022</v>
       </c>
@@ -3338,7 +3505,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>2022</v>
       </c>
@@ -3352,7 +3519,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>2022</v>
       </c>
@@ -3366,7 +3533,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>2022</v>
       </c>
@@ -3380,7 +3547,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>2022</v>
       </c>
@@ -3394,7 +3561,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>2022</v>
       </c>
@@ -3408,7 +3575,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>2022</v>
       </c>
@@ -3422,7 +3589,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>2022</v>
       </c>
@@ -3436,7 +3603,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>2022</v>
       </c>
@@ -3450,7 +3617,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>2023</v>
       </c>
@@ -3461,7 +3628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>2023</v>
       </c>
@@ -3472,7 +3639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>2023</v>
       </c>
@@ -3483,7 +3650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>2023</v>
       </c>
@@ -3497,7 +3664,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>2023</v>
       </c>
@@ -3511,7 +3678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>2023</v>
       </c>
@@ -3525,7 +3692,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>2023</v>
       </c>
@@ -3539,7 +3706,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>2023</v>
       </c>
@@ -3553,7 +3720,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>2023</v>
       </c>
@@ -3567,7 +3734,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>2023</v>
       </c>
@@ -3581,7 +3748,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>2023</v>
       </c>
@@ -3595,7 +3762,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>2023</v>
       </c>
@@ -3609,7 +3776,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>2023</v>
       </c>
@@ -3623,7 +3790,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>2023</v>
       </c>
@@ -3634,7 +3801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>2023</v>
       </c>
@@ -3648,7 +3815,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>2023</v>
       </c>
@@ -3662,7 +3829,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>2023</v>
       </c>
@@ -3676,7 +3843,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>2023</v>
       </c>
@@ -3690,7 +3857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>2023</v>
       </c>
@@ -3704,7 +3871,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>2023</v>
       </c>
@@ -3718,7 +3885,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>2023</v>
       </c>
@@ -3732,7 +3899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>2023</v>
       </c>
@@ -3746,7 +3913,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>2023</v>
       </c>
@@ -3760,7 +3927,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2024</v>
       </c>
@@ -3774,7 +3941,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2024</v>
       </c>
@@ -3788,7 +3955,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2024</v>
       </c>
@@ -3802,7 +3969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2024</v>
       </c>
@@ -3816,7 +3983,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2024</v>
       </c>
@@ -3830,7 +3997,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2024</v>
       </c>
@@ -3844,7 +4011,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2024</v>
       </c>
@@ -3858,7 +4025,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2024</v>
       </c>
@@ -3872,7 +4039,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2024</v>
       </c>
@@ -3886,7 +4053,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2024</v>
       </c>
@@ -3900,7 +4067,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2024</v>
       </c>
@@ -3914,7 +4081,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2024</v>
       </c>
@@ -3928,7 +4095,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2024</v>
       </c>
@@ -3942,7 +4109,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2024</v>
       </c>
@@ -3956,7 +4123,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2024</v>
       </c>
@@ -3970,7 +4137,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2024</v>
       </c>
@@ -3984,7 +4151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2024</v>
       </c>
@@ -3998,7 +4165,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2024</v>
       </c>
@@ -4012,7 +4179,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2024</v>
       </c>
@@ -4026,7 +4193,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2024</v>
       </c>
@@ -4040,7 +4207,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2024</v>
       </c>
@@ -4054,7 +4221,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2024</v>
       </c>
@@ -4068,7 +4235,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2024</v>
       </c>
@@ -4082,7 +4249,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2024</v>
       </c>
@@ -4096,7 +4263,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2024</v>
       </c>
@@ -4110,7 +4277,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2024</v>
       </c>
@@ -4124,7 +4291,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2024</v>
       </c>
@@ -4138,7 +4305,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2024</v>
       </c>
@@ -4152,7 +4319,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2024</v>
       </c>
@@ -4166,7 +4333,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2024</v>
       </c>
@@ -4180,7 +4347,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2024</v>
       </c>
@@ -4194,7 +4361,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2024</v>
       </c>
@@ -4208,7 +4375,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2024</v>
       </c>
@@ -4222,7 +4389,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2024</v>
       </c>
@@ -4236,7 +4403,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2024</v>
       </c>
@@ -4250,7 +4417,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2024</v>
       </c>
@@ -4264,7 +4431,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2024</v>
       </c>
@@ -4278,7 +4445,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2024</v>
       </c>
@@ -4292,7 +4459,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2024</v>
       </c>
@@ -4306,7 +4473,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2024</v>
       </c>
@@ -4320,7 +4487,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2024</v>
       </c>
@@ -4334,7 +4501,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2024</v>
       </c>
@@ -4348,7 +4515,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2024</v>
       </c>
@@ -4362,7 +4529,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2024</v>
       </c>
@@ -4376,7 +4543,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2024</v>
       </c>
@@ -4390,7 +4557,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2024</v>
       </c>
@@ -4404,7 +4571,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2024</v>
       </c>
@@ -4418,7 +4585,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2024</v>
       </c>
@@ -4432,7 +4599,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2024</v>
       </c>
@@ -4444,6 +4611,748 @@
       </c>
       <c r="D235" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D236" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D237" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D239" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D240" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D242" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D243" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D244" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D246" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D247" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D248" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D249" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D250" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D251" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D252" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D253" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D254" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D255" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D256" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D257" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D258" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D259" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D260" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D261" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D262" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D263" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D264" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D265" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D266" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D267" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D268" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D269" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D270" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D271" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D272" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D273" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D274" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D275" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D276" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D278" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D279" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D280" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D282" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D283" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D284" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D285" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D286" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D288" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
